--- a/training/first-phase/notes/GRU_results.xlsx
+++ b/training/first-phase/notes/GRU_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KIT\Master Thesis\dcsim-research-model\training\first-phase\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FCB190-C3C8-4247-AEA6-6F84FCAAE123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB84459-9257-4601-9483-263D9DB0B82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-192" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13212" yWindow="10272" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -867,7 +867,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -927,6 +927,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -935,25 +941,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1235,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L152"/>
+  <dimension ref="A1:L149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1249,13 +1236,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
@@ -1263,13 +1248,11 @@
       <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
@@ -1283,9 +1266,9 @@
         <v>1</v>
       </c>
       <c r="D3" s="9"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
@@ -1293,7 +1276,7 @@
       <c r="L3" s="19"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1323,7 +1306,7 @@
       <c r="L4" s="19"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1351,7 +1334,7 @@
       <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1379,7 +1362,7 @@
       <c r="L6" s="19"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1407,7 +1390,7 @@
       <c r="L7" s="19"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1435,7 +1418,7 @@
       <c r="L8" s="19"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1463,7 +1446,7 @@
       <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1491,7 +1474,7 @@
       <c r="L10" s="19"/>
     </row>
     <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="27"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
@@ -1507,7 +1490,7 @@
       <c r="F11" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="19" t="s">
         <v>143</v>
       </c>
       <c r="H11" s="17" t="s">
@@ -1533,7 +1516,7 @@
       <c r="L12" s="19"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="27" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1563,7 +1546,7 @@
       <c r="L13" s="19"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1591,7 +1574,7 @@
       <c r="L14" s="19"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1619,7 +1602,7 @@
       <c r="L15" s="19"/>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="27"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
@@ -1647,7 +1630,7 @@
       <c r="L16" s="19"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="27" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1677,7 +1660,7 @@
       <c r="L17" s="19"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
@@ -1705,7 +1688,7 @@
       <c r="L18" s="19"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
@@ -1733,7 +1716,7 @@
       <c r="L19" s="19"/>
     </row>
     <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="27"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1761,7 +1744,7 @@
       <c r="L20" s="19"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="27" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -1791,7 +1774,7 @@
       <c r="L21" s="19"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
@@ -1819,7 +1802,7 @@
       <c r="L22" s="19"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
@@ -1847,7 +1830,7 @@
       <c r="L23" s="19"/>
     </row>
     <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="27"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="3" t="s">
         <v>8</v>
       </c>
@@ -1875,7 +1858,7 @@
       <c r="L24" s="19"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="27" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -1905,7 +1888,7 @@
       <c r="L25" s="19"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="26"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="1" t="s">
         <v>6</v>
       </c>
@@ -1933,7 +1916,7 @@
       <c r="L26" s="19"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
@@ -1961,7 +1944,7 @@
       <c r="L27" s="19"/>
     </row>
     <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="27"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="3" t="s">
         <v>8</v>
       </c>
@@ -1989,7 +1972,7 @@
       <c r="L28" s="19"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2019,7 +2002,7 @@
       <c r="L29" s="19"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="26"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="1" t="s">
         <v>6</v>
       </c>
@@ -2047,7 +2030,7 @@
       <c r="L30" s="19"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="1" t="s">
         <v>7</v>
       </c>
@@ -2075,7 +2058,7 @@
       <c r="L31" s="19"/>
     </row>
     <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="27"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="3" t="s">
         <v>8</v>
       </c>
@@ -2103,24 +2086,16 @@
       <c r="L32" s="19"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="34"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
+      <c r="A34" s="26"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -2135,10 +2110,9 @@
       <c r="E35" s="15">
         <v>630</v>
       </c>
-      <c r="F35" s="28"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="26"/>
+      <c r="A36" s="28"/>
       <c r="B36" s="1" t="s">
         <v>16</v>
       </c>
@@ -2151,12 +2125,12 @@
       <c r="E36" s="14">
         <v>270</v>
       </c>
-      <c r="F36" s="29"/>
+      <c r="F36" s="20"/>
       <c r="G36" s="20"/>
       <c r="H36" s="20"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="26"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="1" t="s">
         <v>0</v>
       </c>
@@ -2169,12 +2143,12 @@
       <c r="E37" s="14">
         <v>1000</v>
       </c>
-      <c r="F37" s="29"/>
+      <c r="F37" s="20"/>
       <c r="G37" s="20"/>
       <c r="H37" s="20"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="26"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="1" t="s">
         <v>1</v>
       </c>
@@ -2187,12 +2161,12 @@
       <c r="E38" s="14">
         <v>500</v>
       </c>
-      <c r="F38" s="29"/>
+      <c r="F38" s="20"/>
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="26"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="1" t="s">
         <v>13</v>
       </c>
@@ -2205,12 +2179,12 @@
       <c r="E39" s="14">
         <v>250</v>
       </c>
-      <c r="F39" s="29"/>
+      <c r="F39" s="20"/>
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="26"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="1" t="s">
         <v>2</v>
       </c>
@@ -2223,12 +2197,12 @@
       <c r="E40" s="21">
         <v>16</v>
       </c>
-      <c r="F40" s="29"/>
+      <c r="F40" s="20"/>
       <c r="G40" s="20"/>
       <c r="H40" s="20"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="26"/>
+      <c r="A41" s="28"/>
       <c r="B41" s="1" t="s">
         <v>3</v>
       </c>
@@ -2241,16 +2215,16 @@
       <c r="E41" s="12">
         <v>100</v>
       </c>
-      <c r="F41" s="30"/>
+      <c r="F41" s="19"/>
       <c r="G41" s="19"/>
       <c r="H41" s="19"/>
     </row>
     <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="27"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="19" t="s">
         <v>143</v>
       </c>
       <c r="D42" s="14" t="s">
@@ -2259,7 +2233,7 @@
       <c r="E42" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="F42" s="30"/>
+      <c r="F42" s="19"/>
       <c r="G42" s="19"/>
       <c r="H42" s="19"/>
     </row>
@@ -2269,12 +2243,12 @@
       <c r="C43" s="15"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
-      <c r="F43" s="30"/>
+      <c r="F43" s="19"/>
       <c r="G43" s="19"/>
       <c r="H43" s="19"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="27" t="s">
         <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -2289,12 +2263,12 @@
       <c r="E44" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="F44" s="30"/>
+      <c r="F44" s="19"/>
       <c r="G44" s="19"/>
       <c r="H44" s="19"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="26"/>
+      <c r="A45" s="28"/>
       <c r="B45" s="1" t="s">
         <v>6</v>
       </c>
@@ -2307,12 +2281,12 @@
       <c r="E45" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="F45" s="30"/>
+      <c r="F45" s="19"/>
       <c r="G45" s="19"/>
       <c r="H45" s="19"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="26"/>
+      <c r="A46" s="28"/>
       <c r="B46" s="1" t="s">
         <v>7</v>
       </c>
@@ -2325,12 +2299,12 @@
       <c r="E46" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="F46" s="30"/>
+      <c r="F46" s="19"/>
       <c r="G46" s="19"/>
       <c r="H46" s="19"/>
     </row>
     <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="27"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2343,12 +2317,12 @@
       <c r="E47" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="F47" s="30"/>
+      <c r="F47" s="19"/>
       <c r="G47" s="19"/>
       <c r="H47" s="19"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="27" t="s">
         <v>9</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -2363,12 +2337,12 @@
       <c r="E48" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="F48" s="30"/>
+      <c r="F48" s="19"/>
       <c r="G48" s="19"/>
       <c r="H48" s="19"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="26"/>
+      <c r="A49" s="28"/>
       <c r="B49" s="1" t="s">
         <v>6</v>
       </c>
@@ -2381,12 +2355,12 @@
       <c r="E49" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="F49" s="30"/>
+      <c r="F49" s="19"/>
       <c r="G49" s="19"/>
       <c r="H49" s="19"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="26"/>
+      <c r="A50" s="28"/>
       <c r="B50" s="1" t="s">
         <v>7</v>
       </c>
@@ -2399,12 +2373,12 @@
       <c r="E50" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="F50" s="30"/>
+      <c r="F50" s="19"/>
       <c r="G50" s="19"/>
       <c r="H50" s="19"/>
     </row>
     <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="27"/>
+      <c r="A51" s="29"/>
       <c r="B51" s="3" t="s">
         <v>8</v>
       </c>
@@ -2417,12 +2391,12 @@
       <c r="E51" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="F51" s="30"/>
+      <c r="F51" s="19"/>
       <c r="G51" s="19"/>
       <c r="H51" s="19"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="27" t="s">
         <v>10</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -2437,12 +2411,12 @@
       <c r="E52" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="F52" s="30"/>
+      <c r="F52" s="19"/>
       <c r="G52" s="19"/>
       <c r="H52" s="19"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="26"/>
+      <c r="A53" s="28"/>
       <c r="B53" s="1" t="s">
         <v>6</v>
       </c>
@@ -2455,12 +2429,12 @@
       <c r="E53" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="F53" s="30"/>
+      <c r="F53" s="19"/>
       <c r="G53" s="19"/>
       <c r="H53" s="19"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="26"/>
+      <c r="A54" s="28"/>
       <c r="B54" s="1" t="s">
         <v>7</v>
       </c>
@@ -2473,12 +2447,12 @@
       <c r="E54" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="F54" s="30"/>
+      <c r="F54" s="19"/>
       <c r="G54" s="19"/>
       <c r="H54" s="19"/>
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="27"/>
+      <c r="A55" s="29"/>
       <c r="B55" s="3" t="s">
         <v>8</v>
       </c>
@@ -2491,12 +2465,12 @@
       <c r="E55" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="F55" s="30"/>
+      <c r="F55" s="19"/>
       <c r="G55" s="19"/>
       <c r="H55" s="19"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="27" t="s">
         <v>11</v>
       </c>
       <c r="B56" s="7" t="s">
@@ -2511,12 +2485,12 @@
       <c r="E56" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="F56" s="30"/>
+      <c r="F56" s="19"/>
       <c r="G56" s="19"/>
       <c r="H56" s="19"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="26"/>
+      <c r="A57" s="28"/>
       <c r="B57" s="1" t="s">
         <v>6</v>
       </c>
@@ -2529,12 +2503,12 @@
       <c r="E57" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="F57" s="30"/>
+      <c r="F57" s="19"/>
       <c r="G57" s="19"/>
       <c r="H57" s="19"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="26"/>
+      <c r="A58" s="28"/>
       <c r="B58" s="1" t="s">
         <v>7</v>
       </c>
@@ -2547,12 +2521,12 @@
       <c r="E58" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="F58" s="30"/>
+      <c r="F58" s="19"/>
       <c r="G58" s="19"/>
       <c r="H58" s="19"/>
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="27"/>
+      <c r="A59" s="29"/>
       <c r="B59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2565,12 +2539,12 @@
       <c r="E59" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="F59" s="30"/>
+      <c r="F59" s="19"/>
       <c r="G59" s="19"/>
       <c r="H59" s="19"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -2585,12 +2559,12 @@
       <c r="E60" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="F60" s="30"/>
+      <c r="F60" s="19"/>
       <c r="G60" s="19"/>
       <c r="H60" s="19"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="26"/>
+      <c r="A61" s="28"/>
       <c r="B61" s="1" t="s">
         <v>6</v>
       </c>
@@ -2603,12 +2577,12 @@
       <c r="E61" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="F61" s="29"/>
+      <c r="F61" s="20"/>
       <c r="G61" s="22"/>
       <c r="H61" s="20"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="26"/>
+      <c r="A62" s="28"/>
       <c r="B62" s="1" t="s">
         <v>7</v>
       </c>
@@ -2621,12 +2595,12 @@
       <c r="E62" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="F62" s="29"/>
+      <c r="F62" s="20"/>
       <c r="G62" s="22"/>
       <c r="H62" s="20"/>
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="27"/>
+      <c r="A63" s="29"/>
       <c r="B63" s="3" t="s">
         <v>8</v>
       </c>
@@ -2639,27 +2613,24 @@
       <c r="E63" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="F63" s="30"/>
+      <c r="F63" s="19"/>
       <c r="G63" s="19"/>
       <c r="H63" s="19"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="34"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
+      <c r="A64" s="26"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
       <c r="G64" s="19"/>
       <c r="H64" s="19"/>
     </row>
     <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="28"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
       <c r="G65" s="19"/>
       <c r="H65" s="19"/>
     </row>
@@ -2670,13 +2641,13 @@
         <v>1</v>
       </c>
       <c r="D66" s="9"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
       <c r="G66" s="19"/>
       <c r="H66" s="19"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -2688,13 +2659,13 @@
       <c r="D67" s="15">
         <v>6300</v>
       </c>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
       <c r="G67" s="19"/>
       <c r="H67" s="19"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="26"/>
+      <c r="A68" s="28"/>
       <c r="B68" s="1" t="s">
         <v>16</v>
       </c>
@@ -2704,13 +2675,13 @@
       <c r="D68" s="14">
         <v>2700</v>
       </c>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
       <c r="G68" s="19"/>
       <c r="H68" s="19"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="26"/>
+      <c r="A69" s="28"/>
       <c r="B69" s="1" t="s">
         <v>0</v>
       </c>
@@ -2720,13 +2691,13 @@
       <c r="D69" s="14">
         <v>1000</v>
       </c>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
       <c r="G69" s="19"/>
       <c r="H69" s="19"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="26"/>
+      <c r="A70" s="28"/>
       <c r="B70" s="1" t="s">
         <v>1</v>
       </c>
@@ -2736,13 +2707,13 @@
       <c r="D70" s="14">
         <v>500</v>
       </c>
-      <c r="E70" s="30"/>
-      <c r="F70" s="30"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
       <c r="G70" s="19"/>
       <c r="H70" s="19"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="26"/>
+      <c r="A71" s="28"/>
       <c r="B71" s="1" t="s">
         <v>13</v>
       </c>
@@ -2752,13 +2723,13 @@
       <c r="D71" s="14">
         <v>250</v>
       </c>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
       <c r="G71" s="19"/>
       <c r="H71" s="19"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="26"/>
+      <c r="A72" s="28"/>
       <c r="B72" s="1" t="s">
         <v>2</v>
       </c>
@@ -2766,15 +2737,15 @@
         <v>128</v>
       </c>
       <c r="D72" s="14">
-        <v>128</v>
-      </c>
-      <c r="E72" s="30"/>
-      <c r="F72" s="30"/>
+        <v>32</v>
+      </c>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
       <c r="G72" s="19"/>
       <c r="H72" s="19"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="26"/>
+      <c r="A73" s="28"/>
       <c r="B73" s="1" t="s">
         <v>3</v>
       </c>
@@ -2782,15 +2753,15 @@
         <v>50</v>
       </c>
       <c r="D73" s="14">
-        <v>50</v>
-      </c>
-      <c r="E73" s="30"/>
-      <c r="F73" s="30"/>
+        <v>75</v>
+      </c>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
       <c r="G73" s="19"/>
       <c r="H73" s="19"/>
     </row>
     <row r="74" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="27"/>
+      <c r="A74" s="29"/>
       <c r="B74" s="3" t="s">
         <v>17</v>
       </c>
@@ -2798,8 +2769,8 @@
         <v>18</v>
       </c>
       <c r="D74" s="18"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="30"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
       <c r="G74" s="19"/>
       <c r="H74" s="19"/>
     </row>
@@ -2808,13 +2779,13 @@
       <c r="B75" s="5"/>
       <c r="C75" s="16"/>
       <c r="D75" s="8"/>
-      <c r="E75" s="30"/>
-      <c r="F75" s="30"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
       <c r="G75" s="19"/>
       <c r="H75" s="19"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="25" t="s">
+      <c r="A76" s="27" t="s">
         <v>4</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -2824,13 +2795,13 @@
         <v>19</v>
       </c>
       <c r="D76" s="14"/>
-      <c r="E76" s="30"/>
-      <c r="F76" s="30"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
       <c r="G76" s="19"/>
       <c r="H76" s="19"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="26"/>
+      <c r="A77" s="28"/>
       <c r="B77" s="1" t="s">
         <v>6</v>
       </c>
@@ -2838,13 +2809,13 @@
         <v>20</v>
       </c>
       <c r="D77" s="14"/>
-      <c r="E77" s="30"/>
-      <c r="F77" s="30"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
       <c r="G77" s="19"/>
       <c r="H77" s="19"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="26"/>
+      <c r="A78" s="28"/>
       <c r="B78" s="1" t="s">
         <v>7</v>
       </c>
@@ -2852,13 +2823,13 @@
         <v>21</v>
       </c>
       <c r="D78" s="14"/>
-      <c r="E78" s="30"/>
-      <c r="F78" s="30"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
       <c r="G78" s="19"/>
       <c r="H78" s="19"/>
     </row>
     <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="27"/>
+      <c r="A79" s="29"/>
       <c r="B79" s="3" t="s">
         <v>8</v>
       </c>
@@ -2866,13 +2837,13 @@
         <v>22</v>
       </c>
       <c r="D79" s="18"/>
-      <c r="E79" s="30"/>
-      <c r="F79" s="30"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
       <c r="G79" s="19"/>
       <c r="H79" s="19"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="25" t="s">
+      <c r="A80" s="27" t="s">
         <v>9</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -2882,13 +2853,13 @@
         <v>23</v>
       </c>
       <c r="D80" s="14"/>
-      <c r="E80" s="30"/>
-      <c r="F80" s="30"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
       <c r="G80" s="19"/>
       <c r="H80" s="19"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="26"/>
+      <c r="A81" s="28"/>
       <c r="B81" s="1" t="s">
         <v>6</v>
       </c>
@@ -2896,13 +2867,13 @@
         <v>24</v>
       </c>
       <c r="D81" s="14"/>
-      <c r="E81" s="30"/>
-      <c r="F81" s="30"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
       <c r="G81" s="19"/>
       <c r="H81" s="19"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="26"/>
+      <c r="A82" s="28"/>
       <c r="B82" s="1" t="s">
         <v>7</v>
       </c>
@@ -2910,13 +2881,13 @@
         <v>25</v>
       </c>
       <c r="D82" s="14"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="30"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
       <c r="G82" s="19"/>
       <c r="H82" s="19"/>
     </row>
     <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="27"/>
+      <c r="A83" s="29"/>
       <c r="B83" s="3" t="s">
         <v>8</v>
       </c>
@@ -2924,11 +2895,10 @@
         <v>26</v>
       </c>
       <c r="D83" s="18"/>
-      <c r="E83" s="30"/>
-      <c r="F83" s="28"/>
+      <c r="E83" s="19"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="25" t="s">
+      <c r="A84" s="27" t="s">
         <v>10</v>
       </c>
       <c r="B84" s="6" t="s">
@@ -2938,11 +2908,9 @@
         <v>27</v>
       </c>
       <c r="D84" s="14"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="26"/>
+      <c r="A85" s="28"/>
       <c r="B85" s="1" t="s">
         <v>6</v>
       </c>
@@ -2950,11 +2918,9 @@
         <v>28</v>
       </c>
       <c r="D85" s="14"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="26"/>
+      <c r="A86" s="28"/>
       <c r="B86" s="1" t="s">
         <v>7</v>
       </c>
@@ -2962,13 +2928,13 @@
         <v>29</v>
       </c>
       <c r="D86" s="14"/>
-      <c r="E86" s="30"/>
-      <c r="F86" s="29"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="20"/>
       <c r="G86" s="20"/>
       <c r="H86" s="20"/>
     </row>
     <row r="87" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="27"/>
+      <c r="A87" s="29"/>
       <c r="B87" s="3" t="s">
         <v>8</v>
       </c>
@@ -2976,13 +2942,13 @@
         <v>30</v>
       </c>
       <c r="D87" s="18"/>
-      <c r="E87" s="30"/>
-      <c r="F87" s="30"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
       <c r="G87" s="19"/>
       <c r="H87" s="19"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="25" t="s">
+      <c r="A88" s="27" t="s">
         <v>11</v>
       </c>
       <c r="B88" s="7" t="s">
@@ -2992,13 +2958,13 @@
         <v>31</v>
       </c>
       <c r="D88" s="14"/>
-      <c r="E88" s="30"/>
-      <c r="F88" s="30"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
       <c r="G88" s="19"/>
       <c r="H88" s="19"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="26"/>
+      <c r="A89" s="28"/>
       <c r="B89" s="1" t="s">
         <v>6</v>
       </c>
@@ -3006,13 +2972,13 @@
         <v>32</v>
       </c>
       <c r="D89" s="14"/>
-      <c r="E89" s="30"/>
-      <c r="F89" s="30"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
       <c r="G89" s="19"/>
       <c r="H89" s="19"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="26"/>
+      <c r="A90" s="28"/>
       <c r="B90" s="1" t="s">
         <v>7</v>
       </c>
@@ -3020,13 +2986,13 @@
         <v>33</v>
       </c>
       <c r="D90" s="14"/>
-      <c r="E90" s="30"/>
-      <c r="F90" s="30"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
       <c r="G90" s="19"/>
       <c r="H90" s="19"/>
     </row>
     <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="27"/>
+      <c r="A91" s="29"/>
       <c r="B91" s="3" t="s">
         <v>8</v>
       </c>
@@ -3034,13 +3000,13 @@
         <v>34</v>
       </c>
       <c r="D91" s="18"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="30"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="19"/>
       <c r="G91" s="19"/>
       <c r="H91" s="19"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="25" t="s">
+      <c r="A92" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -3050,13 +3016,13 @@
         <v>35</v>
       </c>
       <c r="D92" s="14"/>
-      <c r="E92" s="30"/>
-      <c r="F92" s="31"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="22"/>
       <c r="G92" s="20"/>
       <c r="H92" s="20"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="26"/>
+      <c r="A93" s="28"/>
       <c r="B93" s="1" t="s">
         <v>6</v>
       </c>
@@ -3064,13 +3030,13 @@
         <v>36</v>
       </c>
       <c r="D93" s="14"/>
-      <c r="E93" s="30"/>
-      <c r="F93" s="32"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="23"/>
       <c r="G93" s="23"/>
       <c r="H93" s="23"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="26"/>
+      <c r="A94" s="28"/>
       <c r="B94" s="1" t="s">
         <v>7</v>
       </c>
@@ -3078,13 +3044,13 @@
         <v>37</v>
       </c>
       <c r="D94" s="14"/>
-      <c r="E94" s="30"/>
-      <c r="F94" s="30"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
       <c r="G94" s="19"/>
       <c r="H94" s="19"/>
     </row>
     <row r="95" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="27"/>
+      <c r="A95" s="29"/>
       <c r="B95" s="3" t="s">
         <v>8</v>
       </c>
@@ -3092,515 +3058,383 @@
         <v>38</v>
       </c>
       <c r="D95" s="18"/>
-      <c r="E95" s="30"/>
-      <c r="F95" s="30"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
       <c r="G95" s="19"/>
       <c r="H95" s="19"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="28"/>
-      <c r="B96" s="28"/>
-      <c r="C96" s="30"/>
-      <c r="D96" s="30"/>
-      <c r="E96" s="30"/>
-      <c r="F96" s="30"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
       <c r="G96" s="19"/>
       <c r="H96" s="19"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="34"/>
-      <c r="B97" s="28"/>
-      <c r="C97" s="30"/>
-      <c r="D97" s="30"/>
-      <c r="E97" s="30"/>
-      <c r="F97" s="30"/>
+      <c r="A97" s="26"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
       <c r="G97" s="19"/>
       <c r="H97" s="19"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="34"/>
-      <c r="B98" s="28"/>
-      <c r="C98" s="30"/>
-      <c r="D98" s="30"/>
-      <c r="E98" s="30"/>
-      <c r="F98" s="30"/>
+      <c r="A98" s="26"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
       <c r="G98" s="19"/>
       <c r="H98" s="19"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="34"/>
-      <c r="B99" s="28"/>
-      <c r="C99" s="30"/>
-      <c r="D99" s="30"/>
-      <c r="E99" s="30"/>
-      <c r="F99" s="30"/>
+      <c r="A99" s="26"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="19"/>
       <c r="G99" s="19"/>
       <c r="H99" s="19"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="34"/>
-      <c r="B100" s="28"/>
-      <c r="C100" s="30"/>
-      <c r="D100" s="30"/>
-      <c r="E100" s="30"/>
-      <c r="F100" s="30"/>
+      <c r="A100" s="26"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19"/>
       <c r="G100" s="19"/>
       <c r="H100" s="19"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="34"/>
-      <c r="B101" s="28"/>
-      <c r="C101" s="30"/>
-      <c r="D101" s="30"/>
-      <c r="E101" s="30"/>
-      <c r="F101" s="30"/>
+      <c r="A101" s="26"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="19"/>
       <c r="G101" s="19"/>
       <c r="H101" s="19"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="34"/>
-      <c r="B102" s="28"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="30"/>
-      <c r="E102" s="30"/>
-      <c r="F102" s="30"/>
+      <c r="A102" s="26"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
       <c r="G102" s="19"/>
       <c r="H102" s="19"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="34"/>
-      <c r="B103" s="28"/>
-      <c r="C103" s="30"/>
-      <c r="D103" s="30"/>
-      <c r="E103" s="30"/>
-      <c r="F103" s="30"/>
+      <c r="A103" s="26"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="19"/>
       <c r="G103" s="19"/>
       <c r="H103" s="19"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="34"/>
-      <c r="B104" s="28"/>
-      <c r="C104" s="30"/>
-      <c r="D104" s="30"/>
-      <c r="E104" s="30"/>
-      <c r="F104" s="30"/>
+      <c r="A104" s="26"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="19"/>
       <c r="G104" s="19"/>
       <c r="H104" s="19"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="34"/>
-      <c r="B105" s="28"/>
-      <c r="C105" s="30"/>
-      <c r="D105" s="30"/>
-      <c r="E105" s="30"/>
-      <c r="F105" s="30"/>
+      <c r="A105" s="26"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="19"/>
       <c r="G105" s="19"/>
       <c r="H105" s="19"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="34"/>
-      <c r="B106" s="28"/>
-      <c r="C106" s="30"/>
-      <c r="D106" s="30"/>
-      <c r="E106" s="30"/>
-      <c r="F106" s="30"/>
+      <c r="A106" s="26"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
       <c r="G106" s="19"/>
       <c r="H106" s="19"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="34"/>
-      <c r="B107" s="28"/>
-      <c r="C107" s="30"/>
-      <c r="D107" s="30"/>
-      <c r="E107" s="30"/>
-      <c r="F107" s="30"/>
+      <c r="A107" s="26"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
       <c r="G107" s="19"/>
       <c r="H107" s="19"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="34"/>
-      <c r="B108" s="28"/>
-      <c r="C108" s="30"/>
-      <c r="D108" s="30"/>
-      <c r="E108" s="30"/>
-      <c r="F108" s="30"/>
+      <c r="A108" s="26"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
       <c r="G108" s="19"/>
       <c r="H108" s="19"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="34"/>
-      <c r="B109" s="28"/>
-      <c r="C109" s="30"/>
-      <c r="D109" s="30"/>
-      <c r="E109" s="30"/>
-      <c r="F109" s="30"/>
+      <c r="A109" s="26"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="19"/>
       <c r="G109" s="19"/>
       <c r="H109" s="19"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="34"/>
-      <c r="B110" s="28"/>
-      <c r="C110" s="30"/>
-      <c r="D110" s="30"/>
-      <c r="E110" s="30"/>
-      <c r="F110" s="30"/>
+      <c r="A110" s="26"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="19"/>
       <c r="G110" s="19"/>
       <c r="H110" s="19"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="34"/>
-      <c r="B111" s="28"/>
-      <c r="C111" s="30"/>
-      <c r="D111" s="30"/>
-      <c r="E111" s="30"/>
-      <c r="F111" s="30"/>
+      <c r="A111" s="26"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="19"/>
       <c r="G111" s="19"/>
       <c r="H111" s="19"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="34"/>
-      <c r="B112" s="28"/>
-      <c r="C112" s="30"/>
-      <c r="D112" s="30"/>
-      <c r="E112" s="30"/>
-      <c r="F112" s="30"/>
+      <c r="A112" s="26"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="19"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="19"/>
       <c r="G112" s="19"/>
       <c r="H112" s="19"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="34"/>
-      <c r="B113" s="28"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30"/>
-      <c r="F113" s="30"/>
+      <c r="A113" s="26"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="19"/>
       <c r="G113" s="19"/>
       <c r="H113" s="19"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="34"/>
-      <c r="B114" s="28"/>
-      <c r="C114" s="30"/>
-      <c r="D114" s="30"/>
-      <c r="E114" s="30"/>
-      <c r="F114" s="30"/>
+      <c r="A114" s="26"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="19"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="19"/>
       <c r="G114" s="19"/>
       <c r="H114" s="19"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="34"/>
-      <c r="B115" s="28"/>
-      <c r="C115" s="30"/>
-      <c r="D115" s="30"/>
-      <c r="E115" s="30"/>
-      <c r="F115" s="30"/>
+      <c r="A115" s="26"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="19"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="19"/>
       <c r="G115" s="19"/>
       <c r="H115" s="19"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="34"/>
-      <c r="B116" s="28"/>
-      <c r="C116" s="30"/>
-      <c r="D116" s="30"/>
-      <c r="E116" s="30"/>
-      <c r="F116" s="28"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="28"/>
-      <c r="B117" s="28"/>
-      <c r="C117" s="28"/>
-      <c r="D117" s="28"/>
-      <c r="E117" s="28"/>
-      <c r="F117" s="28"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="28"/>
-      <c r="B118" s="28"/>
-      <c r="C118" s="28"/>
-      <c r="D118" s="28"/>
-      <c r="E118" s="28"/>
-      <c r="F118" s="28"/>
+      <c r="A116" s="26"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="19"/>
+      <c r="E116" s="19"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="34"/>
-      <c r="B119" s="28"/>
-      <c r="C119" s="30"/>
-      <c r="D119" s="30"/>
-      <c r="E119" s="30"/>
-      <c r="F119" s="28"/>
+      <c r="A119" s="26"/>
+      <c r="C119" s="19"/>
+      <c r="D119" s="19"/>
+      <c r="E119" s="19"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="34"/>
-      <c r="B120" s="28"/>
-      <c r="C120" s="30"/>
-      <c r="D120" s="30"/>
-      <c r="E120" s="30"/>
-      <c r="F120" s="28"/>
+      <c r="A120" s="26"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="19"/>
+      <c r="E120" s="19"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="34"/>
-      <c r="B121" s="28"/>
-      <c r="C121" s="30"/>
-      <c r="D121" s="30"/>
-      <c r="E121" s="30"/>
-      <c r="F121" s="28"/>
+      <c r="A121" s="26"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="19"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="34"/>
-      <c r="B122" s="28"/>
-      <c r="C122" s="30"/>
-      <c r="D122" s="30"/>
-      <c r="E122" s="30"/>
-      <c r="F122" s="28"/>
+      <c r="A122" s="26"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="34"/>
-      <c r="B123" s="28"/>
-      <c r="C123" s="30"/>
-      <c r="D123" s="30"/>
-      <c r="E123" s="30"/>
-      <c r="F123" s="28"/>
+      <c r="A123" s="26"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="19"/>
+      <c r="E123" s="19"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="34"/>
-      <c r="B124" s="28"/>
-      <c r="C124" s="33"/>
-      <c r="D124" s="33"/>
-      <c r="E124" s="33"/>
-      <c r="F124" s="28"/>
+      <c r="A124" s="26"/>
+      <c r="C124" s="25"/>
+      <c r="D124" s="25"/>
+      <c r="E124" s="25"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="34"/>
-      <c r="B125" s="28"/>
-      <c r="C125" s="30"/>
-      <c r="D125" s="30"/>
-      <c r="E125" s="30"/>
-      <c r="F125" s="28"/>
+      <c r="A125" s="26"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="19"/>
+      <c r="E125" s="19"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="34"/>
-      <c r="B126" s="28"/>
-      <c r="C126" s="30"/>
-      <c r="D126" s="30"/>
-      <c r="E126" s="30"/>
-      <c r="F126" s="28"/>
+      <c r="A126" s="26"/>
+      <c r="C126" s="19"/>
+      <c r="D126" s="19"/>
+      <c r="E126" s="19"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="34"/>
-      <c r="B127" s="28"/>
-      <c r="C127" s="30"/>
-      <c r="D127" s="30"/>
-      <c r="E127" s="30"/>
-      <c r="F127" s="28"/>
+      <c r="A127" s="26"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="19"/>
+      <c r="E127" s="19"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="34"/>
-      <c r="B128" s="28"/>
-      <c r="C128" s="30"/>
-      <c r="D128" s="30"/>
-      <c r="E128" s="30"/>
-      <c r="F128" s="28"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="28"/>
-      <c r="B129" s="28"/>
-      <c r="C129" s="30"/>
-      <c r="D129" s="30"/>
-      <c r="E129" s="30"/>
-      <c r="F129" s="28"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="34"/>
-      <c r="B130" s="28"/>
-      <c r="C130" s="30"/>
-      <c r="D130" s="30"/>
-      <c r="E130" s="30"/>
-      <c r="F130" s="28"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="34"/>
-      <c r="B131" s="28"/>
-      <c r="C131" s="30"/>
-      <c r="D131" s="30"/>
-      <c r="E131" s="30"/>
-      <c r="F131" s="28"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="34"/>
-      <c r="B132" s="28"/>
-      <c r="C132" s="30"/>
-      <c r="D132" s="30"/>
-      <c r="E132" s="30"/>
-      <c r="F132" s="28"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="34"/>
-      <c r="B133" s="28"/>
-      <c r="C133" s="30"/>
-      <c r="D133" s="30"/>
-      <c r="E133" s="30"/>
-      <c r="F133" s="28"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="34"/>
-      <c r="B134" s="28"/>
-      <c r="C134" s="30"/>
-      <c r="D134" s="30"/>
-      <c r="E134" s="30"/>
-      <c r="F134" s="28"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="34"/>
-      <c r="B135" s="28"/>
-      <c r="C135" s="30"/>
-      <c r="D135" s="30"/>
-      <c r="E135" s="30"/>
-      <c r="F135" s="28"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="34"/>
-      <c r="B136" s="28"/>
-      <c r="C136" s="30"/>
-      <c r="D136" s="30"/>
-      <c r="E136" s="30"/>
-      <c r="F136" s="28"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="34"/>
-      <c r="B137" s="28"/>
-      <c r="C137" s="30"/>
-      <c r="D137" s="30"/>
-      <c r="E137" s="30"/>
-      <c r="F137" s="28"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="34"/>
-      <c r="B138" s="28"/>
-      <c r="C138" s="30"/>
-      <c r="D138" s="30"/>
-      <c r="E138" s="30"/>
-      <c r="F138" s="28"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="34"/>
-      <c r="B139" s="28"/>
-      <c r="C139" s="30"/>
-      <c r="D139" s="30"/>
-      <c r="E139" s="30"/>
-      <c r="F139" s="28"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="34"/>
-      <c r="B140" s="28"/>
-      <c r="C140" s="30"/>
-      <c r="D140" s="30"/>
-      <c r="E140" s="30"/>
-      <c r="F140" s="28"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="34"/>
-      <c r="B141" s="28"/>
-      <c r="C141" s="30"/>
-      <c r="D141" s="30"/>
-      <c r="E141" s="30"/>
-      <c r="F141" s="28"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="34"/>
-      <c r="B142" s="28"/>
-      <c r="C142" s="30"/>
-      <c r="D142" s="30"/>
-      <c r="E142" s="30"/>
-      <c r="F142" s="28"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="34"/>
-      <c r="B143" s="28"/>
-      <c r="C143" s="30"/>
-      <c r="D143" s="30"/>
-      <c r="E143" s="30"/>
-      <c r="F143" s="28"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="34"/>
-      <c r="B144" s="28"/>
-      <c r="C144" s="30"/>
-      <c r="D144" s="30"/>
-      <c r="E144" s="30"/>
-      <c r="F144" s="28"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="34"/>
-      <c r="B145" s="28"/>
-      <c r="C145" s="30"/>
-      <c r="D145" s="30"/>
-      <c r="E145" s="30"/>
-      <c r="F145" s="28"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="34"/>
-      <c r="B146" s="28"/>
-      <c r="C146" s="30"/>
-      <c r="D146" s="30"/>
-      <c r="E146" s="30"/>
-      <c r="F146" s="28"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="34"/>
-      <c r="B147" s="28"/>
-      <c r="C147" s="30"/>
-      <c r="D147" s="30"/>
-      <c r="E147" s="30"/>
-      <c r="F147" s="28"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="34"/>
-      <c r="B148" s="28"/>
-      <c r="C148" s="30"/>
-      <c r="D148" s="30"/>
-      <c r="E148" s="30"/>
-      <c r="F148" s="28"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="34"/>
-      <c r="B149" s="28"/>
-      <c r="C149" s="30"/>
-      <c r="D149" s="30"/>
-      <c r="E149" s="30"/>
-      <c r="F149" s="28"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="28"/>
-      <c r="B150" s="28"/>
-      <c r="C150" s="28"/>
-      <c r="D150" s="28"/>
-      <c r="E150" s="28"/>
-      <c r="F150" s="28"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="28"/>
-      <c r="B151" s="28"/>
-      <c r="C151" s="28"/>
-      <c r="D151" s="28"/>
-      <c r="E151" s="28"/>
-      <c r="F151" s="28"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="28"/>
-      <c r="B152" s="28"/>
-      <c r="C152" s="28"/>
-      <c r="D152" s="28"/>
-      <c r="E152" s="28"/>
-      <c r="F152" s="28"/>
+      <c r="A128" s="26"/>
+      <c r="C128" s="19"/>
+      <c r="D128" s="19"/>
+      <c r="E128" s="19"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C129" s="19"/>
+      <c r="D129" s="19"/>
+      <c r="E129" s="19"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="26"/>
+      <c r="C130" s="19"/>
+      <c r="D130" s="19"/>
+      <c r="E130" s="19"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="26"/>
+      <c r="C131" s="19"/>
+      <c r="D131" s="19"/>
+      <c r="E131" s="19"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="26"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="19"/>
+      <c r="E132" s="19"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="26"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="19"/>
+      <c r="E133" s="19"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="26"/>
+      <c r="C134" s="19"/>
+      <c r="D134" s="19"/>
+      <c r="E134" s="19"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="26"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="19"/>
+      <c r="E135" s="19"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="26"/>
+      <c r="C136" s="19"/>
+      <c r="D136" s="19"/>
+      <c r="E136" s="19"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="26"/>
+      <c r="C137" s="19"/>
+      <c r="D137" s="19"/>
+      <c r="E137" s="19"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="26"/>
+      <c r="C138" s="19"/>
+      <c r="D138" s="19"/>
+      <c r="E138" s="19"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="26"/>
+      <c r="C139" s="19"/>
+      <c r="D139" s="19"/>
+      <c r="E139" s="19"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="26"/>
+      <c r="C140" s="19"/>
+      <c r="D140" s="19"/>
+      <c r="E140" s="19"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="26"/>
+      <c r="C141" s="19"/>
+      <c r="D141" s="19"/>
+      <c r="E141" s="19"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="26"/>
+      <c r="C142" s="19"/>
+      <c r="D142" s="19"/>
+      <c r="E142" s="19"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="26"/>
+      <c r="C143" s="19"/>
+      <c r="D143" s="19"/>
+      <c r="E143" s="19"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="26"/>
+      <c r="C144" s="19"/>
+      <c r="D144" s="19"/>
+      <c r="E144" s="19"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="26"/>
+      <c r="C145" s="19"/>
+      <c r="D145" s="19"/>
+      <c r="E145" s="19"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="26"/>
+      <c r="C146" s="19"/>
+      <c r="D146" s="19"/>
+      <c r="E146" s="19"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="26"/>
+      <c r="C147" s="19"/>
+      <c r="D147" s="19"/>
+      <c r="E147" s="19"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="26"/>
+      <c r="C148" s="19"/>
+      <c r="D148" s="19"/>
+      <c r="E148" s="19"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="26"/>
+      <c r="C149" s="19"/>
+      <c r="D149" s="19"/>
+      <c r="E149" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A56:A59"/>
     <mergeCell ref="A84:A87"/>
     <mergeCell ref="A88:A91"/>
     <mergeCell ref="A92:A95"/>
@@ -3613,6 +3447,12 @@
     <mergeCell ref="A76:A79"/>
     <mergeCell ref="A80:A83"/>
     <mergeCell ref="A67:A74"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A56:A59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
